--- a/biology/Biochimie/Pullulanase/Pullulanase.xlsx
+++ b/biology/Biochimie/Pullulanase/Pullulanase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pullulanase est une glycoside hydrolase qui catalyse l'hydrolyse des liaisons osidiques α-D-(1→6) du pullulane, de l'amylopectine et du glycogène, ainsi que celles des dextrines limites α et β de ces deux derniers.  Les pullulanases de type I attaquent spécifiquement les liaisons α-(1→6) tandis que les pullulanases de type II sont également capables d'hydrolyser les liaisons α-(1→4).
 Cette enzyme est produite par diverses bactéries et archées. L'exoenzyme constituée d'une lipoprotéine liée à la surface cellulaire de bactéries à Gram négatif du genre Klebsiella en est un exemple.
